--- a/Linear-regression-analysis.xlsx
+++ b/Linear-regression-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiaxu/Desktop/Decision Analytics/midterm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10099AF8-AB8D-1D4E-B6E8-910FB78208F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961F436F-0473-E249-A846-BAD01DA675F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23840" windowHeight="16920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_Dollar_Amount_Invested_in" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId6"/>
-    <pivotCache cacheId="26" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="106">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -299,12 +299,6 @@
     <t>biz1_19</t>
   </si>
   <si>
-    <t xml:space="preserve">not much impact </t>
-  </si>
-  <si>
-    <t>CONCLUSION: MORE EFFECTIVE ON ARTS!!!!</t>
-  </si>
-  <si>
     <t>increase_artemp_167_to_18</t>
   </si>
   <si>
@@ -505,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,12 +682,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +899,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -922,6 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -994,7 +982,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[linear regression analysis.xlsx]Total_Dollar_Amount_Invested_in!PivotTable3</c:name>
+    <c:name>[Linear-regression-analysis.xlsx]Total_Dollar_Amount_Invested_in!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1692,7 +1680,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[linear regression analysis.xlsx]Total_Dollar_Amount_Invested_in!PivotTable3</c:name>
+    <c:name>[Linear-regression-analysis.xlsx]Total_Dollar_Amount_Invested_in!PivotTable3</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -2828,7 +2816,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[linear regression analysis.xlsx]Total_Employment_in_Arts-Relate!PivotTable5</c:name>
+    <c:name>[Linear-regression-analysis.xlsx]Total_Employment_in_Arts-Relate!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3841,7 +3829,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[linear regression analysis.xlsx]Total_Employment_in_Arts-Relate!PivotTable5</c:name>
+    <c:name>[Linear-regression-analysis.xlsx]Total_Employment_in_Arts-Relate!PivotTable5</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -4847,659 +4835,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>smlinvst16 - increase_artemp </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>simple_linear_regression!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>smlinvst16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>simple_linear_regression!$C$2:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>995161.29029999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>572131.14749999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2007750</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1309560.6100000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>223582.08960000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>225000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1203649.635</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2143072.2889999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>303125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1312820.513</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>646590.90910000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>393137.2549</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>898871.64740000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1091666.6669999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1808488.372</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>570930.23259999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>705882.35290000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>488837.08730000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>97709.92366</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>345866.14169999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>776685.11239999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>586885.24589999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>141463.41459999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>905128.20510000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4491720.43</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>563786.76470000006</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3130144.9279999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1592537.3130000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7544585.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>664179.10450000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>425141.24290000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>181707.31709999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2128973.8139999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1257961.9909999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1352432.432</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2292467.5320000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1575229.358</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>727762.66850000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>190689.65520000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1418802.774</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1735051.5460000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>659467.45559999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>339179.10450000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>263879.59869999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5896431.0920000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>315536.72320000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1198178.0900000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2914801.0869999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>319325.15340000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>880416.66669999994</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1425546.108</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>123026.3158</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2393633.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1817980.2960000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>simple_linear_regression!$J$2:$J$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-248</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-17</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-26</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6378-7942-A2B1-BAF901EAA7FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1551038495"/>
-        <c:axId val="1516047263"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1551038495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1516047263"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1516047263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1551038495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t>Relationship Between Average Investment Per Small Business and Art Employment Rate</a:t>
             </a:r>
@@ -5546,7 +4881,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>simple_linear_regression!$I$1</c:f>
+              <c:f>simple_linear_regression!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5629,7 +4964,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>simple_linear_regression!$E$2:$E$56</c:f>
+              <c:f>simple_linear_regression!$D$2:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -5803,7 +5138,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>simple_linear_regression!$I$2:$I$56</c:f>
+              <c:f>simple_linear_regression!$H$2:$H$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -6284,7 +5619,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6369,7 +5704,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>simple_linear_regression!$K$1</c:f>
+              <c:f>simple_linear_regression!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6452,7 +5787,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>simple_linear_regression!$E$2:$E$56</c:f>
+              <c:f>simple_linear_regression!$D$2:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -6626,7 +5961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>simple_linear_regression!$K$2:$K$56</c:f>
+              <c:f>simple_linear_regression!$E$2:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -7348,46 +6683,6 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11013,522 +10308,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11728,49 +10507,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8EFD627-D8FE-8648-9062-077BB2209119}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -11792,7 +10535,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11800,15 +10543,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>808566</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423333</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11828,7 +10571,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13372,7 +12115,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5827A49E-B192-3548-8116-BC4A501D9503}" name="PivotTable3" cacheId="25" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5827A49E-B192-3548-8116-BC4A501D9503}" name="PivotTable3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="N4:O8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -13499,7 +12242,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D6BEF8D-9CE7-A447-A06D-C4ECCC1A7928}" name="PivotTable5" cacheId="26" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D6BEF8D-9CE7-A447-A06D-C4ECCC1A7928}" name="PivotTable5" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="Q6:R15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -14097,12 +12840,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="I11" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -14119,7 +12863,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -14129,16 +12873,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -14272,8 +13016,8 @@
       <c r="L4">
         <v>31307.314843433502</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>106</v>
+      <c r="N4" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -14317,10 +13061,10 @@
       <c r="L5">
         <v>150987.703638971</v>
       </c>
-      <c r="N5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="N5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="4">
         <v>1270454.0180501819</v>
       </c>
     </row>
@@ -14365,10 +13109,10 @@
       <c r="L6">
         <v>23338.6119476204</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" s="4">
         <v>1591213.6921909091</v>
       </c>
     </row>
@@ -14413,10 +13157,10 @@
       <c r="L7">
         <v>39962.5498346815</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="4">
         <v>2162848.418181818</v>
       </c>
     </row>
@@ -14461,10 +13205,10 @@
       <c r="L8">
         <v>22305.302066661799</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="4">
         <v>9416857.6181818191</v>
       </c>
     </row>
@@ -16494,8 +15238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D07B0E-9B88-C14F-B942-29F7F266F68A}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView zoomScale="93" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16593,34 +15337,34 @@
       <c r="N2">
         <v>38770.1655712543</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>2010</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <v>2011</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <v>2012</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <v>2013</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="8">
         <v>2014</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <v>2015</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="8">
         <v>2016</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <v>2017</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="8">
         <v>2018</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="9">
         <v>2019</v>
       </c>
     </row>
@@ -16667,43 +15411,43 @@
       <c r="N3">
         <v>37524.950533402698</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <f xml:space="preserve"> SUM(C2:C56) / 50</f>
         <v>8.6691932938400011</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <f t="shared" ref="R3:Z3" si="0" xml:space="preserve"> SUM(D2:D56) / 50</f>
         <v>9.1397106914399995</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <f t="shared" si="0"/>
         <v>8.8626388213600027</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f t="shared" si="0"/>
         <v>6.0788123287199998</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f t="shared" si="0"/>
         <v>7.351324</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <f t="shared" si="0"/>
         <v>8.0295278849199985</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <f t="shared" si="0"/>
         <v>5.8392075096200031</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="10">
         <f t="shared" si="0"/>
         <v>6.025040122660001</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="10">
         <f t="shared" si="0"/>
         <v>6.1600993219999989</v>
       </c>
-      <c r="Z3" s="11">
+      <c r="Z3" s="10">
         <f t="shared" si="0"/>
         <v>6.7617990599999995</v>
       </c>
@@ -19050,8 +17794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BDA03-BB86-844B-9F18-5B273B25F5AB}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="F9" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView zoomScale="90" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19111,7 +17855,7 @@
         <v>63</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -19257,11 +18001,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -19361,8 +18105,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>106</v>
+      <c r="Q6" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -19413,10 +18157,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="4">
         <v>2837</v>
       </c>
     </row>
@@ -19465,10 +18209,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="4">
         <v>3900</v>
       </c>
     </row>
@@ -19520,10 +18264,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="4">
         <v>3884</v>
       </c>
     </row>
@@ -19575,10 +18319,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="4">
         <v>4258</v>
       </c>
     </row>
@@ -19627,10 +18371,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" s="5">
+      <c r="Q11" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="4">
         <v>4014</v>
       </c>
     </row>
@@ -19682,10 +18426,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="5">
+      <c r="Q12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="4">
         <v>4177</v>
       </c>
     </row>
@@ -19734,10 +18478,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="R13" s="5">
+      <c r="Q13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="4">
         <v>4353</v>
       </c>
     </row>
@@ -19789,10 +18533,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="5">
+      <c r="Q14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="4">
         <v>4219</v>
       </c>
     </row>
@@ -19844,10 +18588,10 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Q15" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="R15" s="5">
+      <c r="Q15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="4">
         <v>4596</v>
       </c>
     </row>
@@ -20859,11 +19603,11 @@
       <c r="M36">
         <v>25020.096969808201</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <f t="shared" si="1"/>
         <v>-248</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
@@ -21150,11 +19894,11 @@
       <c r="M42">
         <v>23866.328178886299</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <f t="shared" si="0"/>
         <v>-130</v>
       </c>
@@ -21301,7 +20045,7 @@
         <f t="shared" si="1"/>
         <v>-11</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="5">
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
@@ -21844,7 +20588,7 @@
         <v>63</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -21873,11 +20617,11 @@
       <c r="B61" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <f>J61 - I61</f>
         <v>-248</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <f>K61-J61</f>
         <v>-3</v>
       </c>
@@ -21904,11 +20648,11 @@
       <c r="B62" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <f>J62 - I62</f>
         <v>145</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <f>K62-J62</f>
         <v>-130</v>
       </c>
@@ -22910,10 +21654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DF6DAA-D907-5347-8A64-40BF68063B1C}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="H11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22921,17 +21665,14 @@
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22942,31 +21683,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22977,37 +21709,27 @@
         <v>995161.29029999999</v>
       </c>
       <c r="D2">
+        <f xml:space="preserve"> C2 / 50</f>
+        <v>19903.225805999999</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2, 'perc of biz under 1 years'!A1:I56, 9, FALSE)</f>
+        <v>3.6866359449999999</v>
+      </c>
+      <c r="F2">
         <f xml:space="preserve"> VLOOKUP(A2,  Total_population!A1:C56, 3, FALSE)</f>
         <v>16217</v>
       </c>
-      <c r="E2">
-        <f xml:space="preserve"> C2 / 50</f>
-        <v>19903.225805999999</v>
-      </c>
-      <c r="F2">
-        <v>63770461.778930701</v>
-      </c>
       <c r="G2">
-        <v>38770.1655712543</v>
-      </c>
-      <c r="H2">
         <f xml:space="preserve"> VLOOKUP(A2, 'Total_Employment_in_Arts-Relate'!A1:N56, 9, FALSE)</f>
         <v>10</v>
       </c>
-      <c r="I2">
-        <f xml:space="preserve"> H2 / D2</f>
+      <c r="H2">
+        <f xml:space="preserve"> G2 / F2</f>
         <v>6.1663686255164333E-4</v>
       </c>
-      <c r="J2">
-        <f xml:space="preserve"> VLOOKUP(A2, 'Total_Employment_in_Arts-Relate'!A1:N56, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>VLOOKUP(A2, 'perc of biz under 1 years'!A1:I56, 9, FALSE)</f>
-        <v>3.6866359449999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23018,37 +21740,27 @@
         <v>300400</v>
       </c>
       <c r="D3">
+        <f xml:space="preserve"> C3 / 50</f>
+        <v>6008</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3, 'perc of biz under 1 years'!A2:I57, 9, FALSE)</f>
+        <v>2.4</v>
+      </c>
+      <c r="F3">
         <f xml:space="preserve"> VLOOKUP(A3,  Total_population!A2:C57, 3, FALSE)</f>
         <v>12264</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E56" si="0" xml:space="preserve"> C3 / 50</f>
-        <v>6008</v>
-      </c>
-      <c r="F3">
-        <v>47882527.710388198</v>
-      </c>
       <c r="G3">
-        <v>37524.950533402698</v>
-      </c>
-      <c r="H3">
         <f xml:space="preserve"> VLOOKUP(A3, 'Total_Employment_in_Arts-Relate'!A2:N57, 9, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I56" si="1" xml:space="preserve"> H3 / D3</f>
+      <c r="H3">
+        <f xml:space="preserve"> G3 / F3</f>
         <v>3.2615786040443573E-4</v>
       </c>
-      <c r="J3">
-        <f xml:space="preserve"> VLOOKUP(A3, 'Total_Employment_in_Arts-Relate'!A2:N57, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>VLOOKUP(A3, 'perc of biz under 1 years'!A2:I57, 9, FALSE)</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23059,37 +21771,27 @@
         <v>572131.14749999996</v>
       </c>
       <c r="D4">
+        <f xml:space="preserve"> C4 / 50</f>
+        <v>11442.622949999999</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4, 'perc of biz under 1 years'!A3:I58, 9, FALSE)</f>
+        <v>2.7322404370000002</v>
+      </c>
+      <c r="F4">
         <f xml:space="preserve"> VLOOKUP(A4,  Total_population!A3:C58, 3, FALSE)</f>
         <v>17416</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>11442.622949999999</v>
-      </c>
-      <c r="F4">
-        <v>44950030.473144501</v>
-      </c>
       <c r="G4">
-        <v>31307.314843433502</v>
-      </c>
-      <c r="H4">
         <f xml:space="preserve"> VLOOKUP(A4, 'Total_Employment_in_Arts-Relate'!A3:N58, 9, FALSE)</f>
         <v>12</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
+      <c r="H4">
+        <f xml:space="preserve"> G4 / F4</f>
         <v>6.8902158934313273E-4</v>
       </c>
-      <c r="J4">
-        <f xml:space="preserve"> VLOOKUP(A4, 'Total_Employment_in_Arts-Relate'!A3:N58, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>VLOOKUP(A4, 'perc of biz under 1 years'!A3:I58, 9, FALSE)</f>
-        <v>2.7322404370000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23100,37 +21802,27 @@
         <v>2007750</v>
       </c>
       <c r="D5">
+        <f xml:space="preserve"> C5 / 50</f>
+        <v>40155</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5, 'perc of biz under 1 years'!A4:I59, 9, FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F5">
         <f xml:space="preserve"> VLOOKUP(A5,  Total_population!A4:C59, 3, FALSE)</f>
         <v>14243</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>40155</v>
-      </c>
-      <c r="F5">
-        <v>176077742.748108</v>
-      </c>
       <c r="G5">
-        <v>150987.703638971</v>
-      </c>
-      <c r="H5">
         <f xml:space="preserve"> VLOOKUP(A5, 'Total_Employment_in_Arts-Relate'!A4:N59, 9, FALSE)</f>
         <v>25</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f xml:space="preserve"> G5 / F5</f>
         <v>1.7552481920943622E-3</v>
       </c>
-      <c r="J5">
-        <f xml:space="preserve"> VLOOKUP(A5, 'Total_Employment_in_Arts-Relate'!A4:N59, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>VLOOKUP(A5, 'perc of biz under 1 years'!A4:I59, 9, FALSE)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23141,37 +21833,27 @@
         <v>1309560.6100000001</v>
       </c>
       <c r="D6">
+        <f xml:space="preserve"> C6 / 50</f>
+        <v>26191.212200000002</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6, 'perc of biz under 1 years'!A5:I60, 9, FALSE)</f>
+        <v>5.2325581400000001</v>
+      </c>
+      <c r="F6">
         <f xml:space="preserve"> VLOOKUP(A6,  Total_population!A5:C60, 3, FALSE)</f>
         <v>8100</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>26191.212200000002</v>
-      </c>
-      <c r="F6">
-        <v>15408538.225097699</v>
-      </c>
       <c r="G6">
-        <v>23338.6119476204</v>
-      </c>
-      <c r="H6">
         <f xml:space="preserve"> VLOOKUP(A6, 'Total_Employment_in_Arts-Relate'!A5:N60, 9, FALSE)</f>
         <v>9</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
+      <c r="H6">
+        <f xml:space="preserve"> G6 / F6</f>
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="J6">
-        <f xml:space="preserve"> VLOOKUP(A6, 'Total_Employment_in_Arts-Relate'!A5:N60, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>VLOOKUP(A6, 'perc of biz under 1 years'!A5:I60, 9, FALSE)</f>
-        <v>5.2325581400000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23182,37 +21864,27 @@
         <v>223582.08960000001</v>
       </c>
       <c r="D7">
+        <f xml:space="preserve"> C7 / 50</f>
+        <v>4471.6417920000004</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7, 'perc of biz under 1 years'!A6:I61, 9, FALSE)</f>
+        <v>2.686567164</v>
+      </c>
+      <c r="F7">
         <f xml:space="preserve"> VLOOKUP(A7,  Total_population!A6:C61, 3, FALSE)</f>
         <v>23557</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>4471.6417920000004</v>
-      </c>
-      <c r="F7">
-        <v>71541340.305847198</v>
-      </c>
       <c r="G7">
-        <v>39962.5498346815</v>
-      </c>
-      <c r="H7">
         <f xml:space="preserve"> VLOOKUP(A7, 'Total_Employment_in_Arts-Relate'!A6:N61, 9, FALSE)</f>
         <v>6</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
+      <c r="H7">
+        <f xml:space="preserve"> G7 / F7</f>
         <v>2.5470136265229017E-4</v>
       </c>
-      <c r="J7">
-        <f xml:space="preserve"> VLOOKUP(A7, 'Total_Employment_in_Arts-Relate'!A6:N61, 14, FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <f>VLOOKUP(A7, 'perc of biz under 1 years'!A6:I61, 9, FALSE)</f>
-        <v>2.686567164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23223,37 +21895,27 @@
         <v>225000</v>
       </c>
       <c r="D8">
+        <f xml:space="preserve"> C8 / 50</f>
+        <v>4500</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(A8, 'perc of biz under 1 years'!A7:I62, 9, FALSE)</f>
+        <v>5.223880597</v>
+      </c>
+      <c r="F8">
         <f xml:space="preserve"> VLOOKUP(A8,  Total_population!A7:C62, 3, FALSE)</f>
         <v>8202</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>4500</v>
-      </c>
-      <c r="F8">
-        <v>29144181.350768998</v>
-      </c>
       <c r="G8">
-        <v>22305.302066661799</v>
-      </c>
-      <c r="H8">
         <f xml:space="preserve"> VLOOKUP(A8, 'Total_Employment_in_Arts-Relate'!A7:N61, 9, FALSE)</f>
         <v>25</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
+      <c r="H8">
+        <f xml:space="preserve"> G8 / F8</f>
         <v>3.0480370641306999E-3</v>
       </c>
-      <c r="J8">
-        <f xml:space="preserve"> VLOOKUP(A8, 'Total_Employment_in_Arts-Relate'!A7:N61, 14, FALSE)</f>
-        <v>-4</v>
-      </c>
-      <c r="K8">
-        <f>VLOOKUP(A8, 'perc of biz under 1 years'!A7:I62, 9, FALSE)</f>
-        <v>5.223880597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23264,37 +21926,27 @@
         <v>1203649.635</v>
       </c>
       <c r="D9">
+        <f xml:space="preserve"> C9 / 50</f>
+        <v>24072.992699999999</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(A9, 'perc of biz under 1 years'!A8:I63, 9, FALSE)</f>
+        <v>5.8394160580000003</v>
+      </c>
+      <c r="F9">
         <f xml:space="preserve"> VLOOKUP(A9,  Total_population!A8:C63, 3, FALSE)</f>
         <v>7756</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>24072.992699999999</v>
-      </c>
-      <c r="F9">
-        <v>21022590.131286599</v>
-      </c>
       <c r="G9">
-        <v>21705.411630312599</v>
-      </c>
-      <c r="H9">
         <f xml:space="preserve"> VLOOKUP(A9, 'Total_Employment_in_Arts-Relate'!A8:N61, 9, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
+      <c r="H9">
+        <f xml:space="preserve"> G9 / F9</f>
         <v>5.1572975760701394E-4</v>
       </c>
-      <c r="J9">
-        <f xml:space="preserve"> VLOOKUP(A9, 'Total_Employment_in_Arts-Relate'!A8:N61, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>VLOOKUP(A9, 'perc of biz under 1 years'!A8:I63, 9, FALSE)</f>
-        <v>5.8394160580000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23305,37 +21957,27 @@
         <v>2143072.2889999999</v>
       </c>
       <c r="D10">
+        <f xml:space="preserve"> C10 / 50</f>
+        <v>42861.445779999995</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(A10, 'perc of biz under 1 years'!A9:I64, 9, FALSE)</f>
+        <v>2.4096385539999998</v>
+      </c>
+      <c r="F10">
         <f xml:space="preserve"> VLOOKUP(A10,  Total_population!A9:C64, 3, FALSE)</f>
         <v>8231</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>42861.445779999995</v>
-      </c>
-      <c r="F10">
-        <v>61243774.420959502</v>
-      </c>
       <c r="G10">
-        <v>40104.415980161502</v>
-      </c>
-      <c r="H10">
         <f xml:space="preserve"> VLOOKUP(A10, 'Total_Employment_in_Arts-Relate'!A9:N61, 9, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f xml:space="preserve"> G10 / F10</f>
         <v>2.4298384157453529E-4</v>
       </c>
-      <c r="J10">
-        <f xml:space="preserve"> VLOOKUP(A10, 'Total_Employment_in_Arts-Relate'!A9:N61, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>VLOOKUP(A10, 'perc of biz under 1 years'!A9:I64, 9, FALSE)</f>
-        <v>2.4096385539999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23346,37 +21988,27 @@
         <v>303125</v>
       </c>
       <c r="D11">
+        <f xml:space="preserve"> C11 / 50</f>
+        <v>6062.5</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(A11, 'perc of biz under 1 years'!A10:I65, 9, FALSE)</f>
+        <v>5.46875</v>
+      </c>
+      <c r="F11">
         <f xml:space="preserve"> VLOOKUP(A11,  Total_population!A10:C65, 3, FALSE)</f>
         <v>9874</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>6062.5</v>
-      </c>
-      <c r="F11">
-        <v>23285233.9252319</v>
-      </c>
       <c r="G11">
-        <v>24022.764620783699</v>
-      </c>
-      <c r="H11">
         <f xml:space="preserve"> VLOOKUP(A11, 'Total_Employment_in_Arts-Relate'!A10:N61, 9, FALSE)</f>
         <v>12</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f xml:space="preserve"> G11 / F11</f>
         <v>1.2153129430828439E-3</v>
       </c>
-      <c r="J11">
-        <f xml:space="preserve"> VLOOKUP(A11, 'Total_Employment_in_Arts-Relate'!A10:N61, 14, FALSE)</f>
-        <v>-12</v>
-      </c>
-      <c r="K11">
-        <f>VLOOKUP(A11, 'perc of biz under 1 years'!A10:I65, 9, FALSE)</f>
-        <v>5.46875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23387,37 +22019,27 @@
         <v>1312820.513</v>
       </c>
       <c r="D12">
+        <f xml:space="preserve"> C12 / 50</f>
+        <v>26256.410260000001</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(A12, 'perc of biz under 1 years'!A11:I66, 9, FALSE)</f>
+        <v>5.6410256409999997</v>
+      </c>
+      <c r="F12">
         <f xml:space="preserve"> VLOOKUP(A12,  Total_population!A11:C66, 3, FALSE)</f>
         <v>13034</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>26256.410260000001</v>
-      </c>
-      <c r="F12">
-        <v>38222018.316040002</v>
-      </c>
       <c r="G12">
-        <v>26788.3018783796</v>
-      </c>
-      <c r="H12">
         <f xml:space="preserve"> VLOOKUP(A12, 'Total_Employment_in_Arts-Relate'!A11:N61, 9, FALSE)</f>
         <v>11</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f xml:space="preserve"> G12 / F12</f>
         <v>8.4394660119686967E-4</v>
       </c>
-      <c r="J12">
-        <f xml:space="preserve"> VLOOKUP(A12, 'Total_Employment_in_Arts-Relate'!A11:N61, 14, FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <f>VLOOKUP(A12, 'perc of biz under 1 years'!A11:I66, 9, FALSE)</f>
-        <v>5.6410256409999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23428,37 +22050,27 @@
         <v>646590.90910000005</v>
       </c>
       <c r="D13">
+        <f xml:space="preserve"> C13 / 50</f>
+        <v>12931.818182000001</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(A13, 'perc of biz under 1 years'!A12:I67, 9, FALSE)</f>
+        <v>9.0909090910000003</v>
+      </c>
+      <c r="F13">
         <f xml:space="preserve"> VLOOKUP(A13,  Total_population!A12:C67, 3, FALSE)</f>
         <v>4101</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>12931.818182000001</v>
-      </c>
-      <c r="F13">
-        <v>35719112.415527299</v>
-      </c>
       <c r="G13">
-        <v>31637.817423796201</v>
-      </c>
-      <c r="H13">
         <f xml:space="preserve"> VLOOKUP(A13, 'Total_Employment_in_Arts-Relate'!A12:N62, 9, FALSE)</f>
         <v>5</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f xml:space="preserve"> G13 / F13</f>
         <v>1.21921482565228E-3</v>
       </c>
-      <c r="J13">
-        <f xml:space="preserve"> VLOOKUP(A13, 'Total_Employment_in_Arts-Relate'!A12:N62, 14, FALSE)</f>
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <f>VLOOKUP(A13, 'perc of biz under 1 years'!A12:I67, 9, FALSE)</f>
-        <v>9.0909090910000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23469,37 +22081,27 @@
         <v>393137.2549</v>
       </c>
       <c r="D14">
+        <f xml:space="preserve"> C14 / 50</f>
+        <v>7862.7450980000003</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(A14, 'perc of biz under 1 years'!A13:I68, 9, FALSE)</f>
+        <v>3.9215686270000001</v>
+      </c>
+      <c r="F14">
         <f xml:space="preserve"> VLOOKUP(A14,  Total_population!A13:C68, 3, FALSE)</f>
         <v>11786</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>7862.7450980000003</v>
-      </c>
-      <c r="F14">
-        <v>34118277.181457497</v>
-      </c>
       <c r="G14">
-        <v>27136.075711541402</v>
-      </c>
-      <c r="H14">
         <f xml:space="preserve"> VLOOKUP(A14, 'Total_Employment_in_Arts-Relate'!A13:N63, 9, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f xml:space="preserve"> G14 / F14</f>
         <v>0</v>
       </c>
-      <c r="J14">
-        <f xml:space="preserve"> VLOOKUP(A14, 'Total_Employment_in_Arts-Relate'!A13:N63, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f>VLOOKUP(A14, 'perc of biz under 1 years'!A13:I68, 9, FALSE)</f>
-        <v>3.9215686270000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23510,37 +22112,27 @@
         <v>898871.64740000002</v>
       </c>
       <c r="D15">
+        <f xml:space="preserve"> C15 / 50</f>
+        <v>17977.432948000001</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(A15, 'perc of biz under 1 years'!A14:I69, 9, FALSE)</f>
+        <v>7.2098053350000004</v>
+      </c>
+      <c r="F15">
         <f xml:space="preserve"> VLOOKUP(A15,  Total_population!A14:C69, 3, FALSE)</f>
         <v>6446</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>17977.432948000001</v>
-      </c>
-      <c r="F15">
-        <v>20736554.407348599</v>
-      </c>
       <c r="G15">
-        <v>21565.859394552201</v>
-      </c>
-      <c r="H15">
         <f xml:space="preserve"> VLOOKUP(A15, 'Total_Employment_in_Arts-Relate'!A14:N64, 9, FALSE)</f>
         <v>711</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f xml:space="preserve"> G15 / F15</f>
         <v>0.11030096183679801</v>
       </c>
-      <c r="J15">
-        <f xml:space="preserve"> VLOOKUP(A15, 'Total_Employment_in_Arts-Relate'!A14:N64, 14, FALSE)</f>
-        <v>-54</v>
-      </c>
-      <c r="K15">
-        <f>VLOOKUP(A15, 'perc of biz under 1 years'!A14:I69, 9, FALSE)</f>
-        <v>7.2098053350000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23551,37 +22143,27 @@
         <v>1091666.6669999999</v>
       </c>
       <c r="D16">
+        <f xml:space="preserve"> C16 / 50</f>
+        <v>21833.333339999997</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(A16, 'perc of biz under 1 years'!A15:I70, 9, FALSE)</f>
+        <v>11.11111111</v>
+      </c>
+      <c r="F16">
         <f xml:space="preserve"> VLOOKUP(A16,  Total_population!A15:C70, 3, FALSE)</f>
         <v>7900</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>21833.333339999997</v>
-      </c>
-      <c r="F16">
-        <v>23563061.041625999</v>
-      </c>
       <c r="G16">
-        <v>21504.551357817902</v>
-      </c>
-      <c r="H16">
         <f xml:space="preserve"> VLOOKUP(A16, 'Total_Employment_in_Arts-Relate'!A15:N65, 9, FALSE)</f>
         <v>7</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f xml:space="preserve"> G16 / F16</f>
         <v>8.8607594936708858E-4</v>
       </c>
-      <c r="J16">
-        <f xml:space="preserve"> VLOOKUP(A16, 'Total_Employment_in_Arts-Relate'!A15:N65, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>VLOOKUP(A16, 'perc of biz under 1 years'!A15:I70, 9, FALSE)</f>
-        <v>11.11111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23592,37 +22174,27 @@
         <v>1808488.372</v>
       </c>
       <c r="D17">
+        <f xml:space="preserve"> C17 / 50</f>
+        <v>36169.767439999996</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(A17, 'perc of biz under 1 years'!A16:I71, 9, FALSE)</f>
+        <v>4.4186046509999999</v>
+      </c>
+      <c r="F17">
         <f xml:space="preserve"> VLOOKUP(A17,  Total_population!A16:C71, 3, FALSE)</f>
         <v>9039</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>36169.767439999996</v>
-      </c>
-      <c r="F17">
-        <v>12620515.717468301</v>
-      </c>
       <c r="G17">
-        <v>27670.169915754599</v>
-      </c>
-      <c r="H17">
         <f xml:space="preserve"> VLOOKUP(A17, 'Total_Employment_in_Arts-Relate'!A16:N66, 9, FALSE)</f>
         <v>115</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f xml:space="preserve"> G17 / F17</f>
         <v>1.2722646310432569E-2</v>
       </c>
-      <c r="J17">
-        <f xml:space="preserve"> VLOOKUP(A17, 'Total_Employment_in_Arts-Relate'!A16:N66, 14, FALSE)</f>
-        <v>36</v>
-      </c>
-      <c r="K17">
-        <f>VLOOKUP(A17, 'perc of biz under 1 years'!A16:I71, 9, FALSE)</f>
-        <v>4.4186046509999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23633,37 +22205,27 @@
         <v>570930.23259999999</v>
       </c>
       <c r="D18">
+        <f xml:space="preserve"> C18 / 50</f>
+        <v>11418.604652</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(A18, 'perc of biz under 1 years'!A17:I72, 9, FALSE)</f>
+        <v>7.7519379839999996</v>
+      </c>
+      <c r="F18">
         <f xml:space="preserve"> VLOOKUP(A18,  Total_population!A17:C72, 3, FALSE)</f>
         <v>9849</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>11418.604652</v>
-      </c>
-      <c r="F18">
-        <v>37200535.029418901</v>
-      </c>
       <c r="G18">
-        <v>36886.899781119799</v>
-      </c>
-      <c r="H18">
         <f xml:space="preserve"> VLOOKUP(A18, 'Total_Employment_in_Arts-Relate'!A17:N67, 9, FALSE)</f>
         <v>7</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f xml:space="preserve"> G18 / F18</f>
         <v>7.1073205401563609E-4</v>
       </c>
-      <c r="J18">
-        <f xml:space="preserve"> VLOOKUP(A18, 'Total_Employment_in_Arts-Relate'!A17:N67, 14, FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="K18">
-        <f>VLOOKUP(A18, 'perc of biz under 1 years'!A17:I72, 9, FALSE)</f>
-        <v>7.7519379839999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23674,37 +22236,27 @@
         <v>705882.35290000006</v>
       </c>
       <c r="D19">
+        <f xml:space="preserve"> C19 / 50</f>
+        <v>14117.647058</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(A19, 'perc of biz under 1 years'!A18:I73, 9, FALSE)</f>
+        <v>4.6757164400000004</v>
+      </c>
+      <c r="F19">
         <f xml:space="preserve"> VLOOKUP(A19,  Total_population!A18:C73, 3, FALSE)</f>
         <v>14914</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>14117.647058</v>
-      </c>
-      <c r="F19">
-        <v>46995477.478332497</v>
-      </c>
       <c r="G19">
-        <v>48549.004617915103</v>
-      </c>
-      <c r="H19">
         <f xml:space="preserve"> VLOOKUP(A19, 'Total_Employment_in_Arts-Relate'!A18:N68, 9, FALSE)</f>
         <v>29</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
+      <c r="H19">
+        <f xml:space="preserve"> G19 / F19</f>
         <v>1.9444816950516294E-3</v>
       </c>
-      <c r="J19">
-        <f xml:space="preserve"> VLOOKUP(A19, 'Total_Employment_in_Arts-Relate'!A18:N68, 14, FALSE)</f>
-        <v>-4</v>
-      </c>
-      <c r="K19">
-        <f>VLOOKUP(A19, 'perc of biz under 1 years'!A18:I73, 9, FALSE)</f>
-        <v>4.6757164400000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23715,37 +22267,27 @@
         <v>488837.08730000001</v>
       </c>
       <c r="D20">
+        <f xml:space="preserve"> C20 / 50</f>
+        <v>9776.7417459999997</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(A20, 'perc of biz under 1 years'!A19:I74, 9, FALSE)</f>
+        <v>5.5424528300000002</v>
+      </c>
+      <c r="F20">
         <f xml:space="preserve"> VLOOKUP(A20,  Total_population!A19:C74, 3, FALSE)</f>
         <v>16391</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>9776.7417459999997</v>
-      </c>
-      <c r="F20">
-        <v>27051213.4530029</v>
-      </c>
       <c r="G20">
-        <v>26454.269211321302</v>
-      </c>
-      <c r="H20">
         <f xml:space="preserve"> VLOOKUP(A20, 'Total_Employment_in_Arts-Relate'!A19:N69, 9, FALSE)</f>
         <v>340</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f xml:space="preserve"> G20 / F20</f>
         <v>2.0743090720517356E-2</v>
       </c>
-      <c r="J20">
-        <f xml:space="preserve"> VLOOKUP(A20, 'Total_Employment_in_Arts-Relate'!A19:N69, 14, FALSE)</f>
-        <v>-2</v>
-      </c>
-      <c r="K20">
-        <f>VLOOKUP(A20, 'perc of biz under 1 years'!A19:I74, 9, FALSE)</f>
-        <v>5.5424528300000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23756,37 +22298,27 @@
         <v>97709.92366</v>
       </c>
       <c r="D21">
+        <f xml:space="preserve"> C21 / 50</f>
+        <v>1954.1984732000001</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(A21, 'perc of biz under 1 years'!A20:I75, 9, FALSE)</f>
+        <v>6.8702290079999999</v>
+      </c>
+      <c r="F21">
         <f xml:space="preserve"> VLOOKUP(A21,  Total_population!A20:C75, 3, FALSE)</f>
         <v>10681</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1954.1984732000001</v>
-      </c>
-      <c r="F21">
-        <v>22698495.717956498</v>
-      </c>
       <c r="G21">
-        <v>22982.125714953701</v>
-      </c>
-      <c r="H21">
         <f xml:space="preserve"> VLOOKUP(A21, 'Total_Employment_in_Arts-Relate'!A20:N70, 9, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
+      <c r="H21">
+        <f xml:space="preserve"> G21 / F21</f>
         <v>0</v>
       </c>
-      <c r="J21">
-        <f xml:space="preserve"> VLOOKUP(A21, 'Total_Employment_in_Arts-Relate'!A20:N70, 14, FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <f>VLOOKUP(A21, 'perc of biz under 1 years'!A20:I75, 9, FALSE)</f>
-        <v>6.8702290079999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23797,37 +22329,27 @@
         <v>345866.14169999998</v>
       </c>
       <c r="D22">
+        <f xml:space="preserve"> C22 / 50</f>
+        <v>6917.3228339999996</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(A22, 'perc of biz under 1 years'!A21:I76, 9, FALSE)</f>
+        <v>2.755905512</v>
+      </c>
+      <c r="F22">
         <f xml:space="preserve"> VLOOKUP(A22,  Total_population!A21:C76, 3, FALSE)</f>
         <v>9322</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>6917.3228339999996</v>
-      </c>
-      <c r="F22">
-        <v>33663448.279480003</v>
-      </c>
       <c r="G22">
-        <v>31136.731890356499</v>
-      </c>
-      <c r="H22">
         <f xml:space="preserve"> VLOOKUP(A22, 'Total_Employment_in_Arts-Relate'!A21:N71, 9, FALSE)</f>
         <v>10</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
+      <c r="H22">
+        <f xml:space="preserve"> G22 / F22</f>
         <v>1.0727311735679039E-3</v>
       </c>
-      <c r="J22">
-        <f xml:space="preserve"> VLOOKUP(A22, 'Total_Employment_in_Arts-Relate'!A21:N71, 14, FALSE)</f>
-        <v>-9</v>
-      </c>
-      <c r="K22">
-        <f>VLOOKUP(A22, 'perc of biz under 1 years'!A21:I76, 9, FALSE)</f>
-        <v>2.755905512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23838,37 +22360,27 @@
         <v>776685.11239999998</v>
       </c>
       <c r="D23">
+        <f xml:space="preserve"> C23 / 50</f>
+        <v>15533.702248</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(A23, 'perc of biz under 1 years'!A22:I77, 9, FALSE)</f>
+        <v>5.8988764040000001</v>
+      </c>
+      <c r="F23">
         <f xml:space="preserve"> VLOOKUP(A23,  Total_population!A22:C77, 3, FALSE)</f>
         <v>7377</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>15533.702248</v>
-      </c>
-      <c r="F23">
-        <v>56688145.179138198</v>
-      </c>
       <c r="G23">
-        <v>39862.749795327902</v>
-      </c>
-      <c r="H23">
         <f xml:space="preserve"> VLOOKUP(A23, 'Total_Employment_in_Arts-Relate'!A22:N72, 9, FALSE)</f>
         <v>65</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
+      <c r="H23">
+        <f xml:space="preserve"> G23 / F23</f>
         <v>8.8111698522434587E-3</v>
       </c>
-      <c r="J23">
-        <f xml:space="preserve"> VLOOKUP(A23, 'Total_Employment_in_Arts-Relate'!A22:N72, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>VLOOKUP(A23, 'perc of biz under 1 years'!A22:I77, 9, FALSE)</f>
-        <v>5.8988764040000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23879,37 +22391,27 @@
         <v>586885.24589999998</v>
       </c>
       <c r="D24">
+        <f xml:space="preserve"> C24 / 50</f>
+        <v>11737.704917999999</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(A24, 'perc of biz under 1 years'!A23:I78, 9, FALSE)</f>
+        <v>3.6885245900000001</v>
+      </c>
+      <c r="F24">
         <f xml:space="preserve"> VLOOKUP(A24,  Total_population!A23:C78, 3, FALSE)</f>
         <v>19259</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>11737.704917999999</v>
-      </c>
-      <c r="F24">
-        <v>42204384.542602502</v>
-      </c>
       <c r="G24">
-        <v>32559.076221187399</v>
-      </c>
-      <c r="H24">
         <f xml:space="preserve"> VLOOKUP(A24, 'Total_Employment_in_Arts-Relate'!A23:N73, 9, FALSE)</f>
         <v>14</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
+      <c r="H24">
+        <f xml:space="preserve"> G24 / F24</f>
         <v>7.2693286255776524E-4</v>
       </c>
-      <c r="J24">
-        <f xml:space="preserve"> VLOOKUP(A24, 'Total_Employment_in_Arts-Relate'!A23:N73, 14, FALSE)</f>
-        <v>-5</v>
-      </c>
-      <c r="K24">
-        <f>VLOOKUP(A24, 'perc of biz under 1 years'!A23:I78, 9, FALSE)</f>
-        <v>3.6885245900000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23920,37 +22422,27 @@
         <v>141463.41459999999</v>
       </c>
       <c r="D25">
+        <f xml:space="preserve"> C25 / 50</f>
+        <v>2829.2682919999997</v>
+      </c>
+      <c r="E25">
+        <f>VLOOKUP(A25, 'perc of biz under 1 years'!A24:I79, 9, FALSE)</f>
+        <v>4.8780487800000003</v>
+      </c>
+      <c r="F25">
         <f xml:space="preserve"> VLOOKUP(A25,  Total_population!A24:C79, 3, FALSE)</f>
         <v>8184</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>2829.2682919999997</v>
-      </c>
-      <c r="F25">
-        <v>19072287.823974598</v>
-      </c>
       <c r="G25">
-        <v>20797.473457854201</v>
-      </c>
-      <c r="H25">
         <f xml:space="preserve"> VLOOKUP(A25, 'Total_Employment_in_Arts-Relate'!A24:N74, 9, FALSE)</f>
         <v>20</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
+      <c r="H25">
+        <f xml:space="preserve"> G25 / F25</f>
         <v>2.4437927663734115E-3</v>
       </c>
-      <c r="J25">
-        <f xml:space="preserve"> VLOOKUP(A25, 'Total_Employment_in_Arts-Relate'!A24:N74, 14, FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="K25">
-        <f>VLOOKUP(A25, 'perc of biz under 1 years'!A24:I79, 9, FALSE)</f>
-        <v>4.8780487800000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23961,37 +22453,27 @@
         <v>905128.20510000002</v>
       </c>
       <c r="D26">
+        <f xml:space="preserve"> C26 / 50</f>
+        <v>18102.564102</v>
+      </c>
+      <c r="E26">
+        <f>VLOOKUP(A26, 'perc of biz under 1 years'!A25:I80, 9, FALSE)</f>
+        <v>3.4188034190000001</v>
+      </c>
+      <c r="F26">
         <f xml:space="preserve"> VLOOKUP(A26,  Total_population!A25:C80, 3, FALSE)</f>
         <v>13002</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>18102.564102</v>
-      </c>
-      <c r="F26">
-        <v>45191100.558959998</v>
-      </c>
       <c r="G26">
-        <v>27712.111091509301</v>
-      </c>
-      <c r="H26">
         <f xml:space="preserve"> VLOOKUP(A26, 'Total_Employment_in_Arts-Relate'!A25:N75, 9, FALSE)</f>
         <v>17</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
+      <c r="H26">
+        <f xml:space="preserve"> G26 / F26</f>
         <v>1.3074911552068912E-3</v>
       </c>
-      <c r="J26">
-        <f xml:space="preserve"> VLOOKUP(A26, 'Total_Employment_in_Arts-Relate'!A25:N75, 14, FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="K26">
-        <f>VLOOKUP(A26, 'perc of biz under 1 years'!A25:I80, 9, FALSE)</f>
-        <v>3.4188034190000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24002,37 +22484,27 @@
         <v>4491720.43</v>
       </c>
       <c r="D27">
+        <f xml:space="preserve"> C27 / 50</f>
+        <v>89834.408599999995</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(A27, 'perc of biz under 1 years'!A26:I81, 9, FALSE)</f>
+        <v>4.9462365589999999</v>
+      </c>
+      <c r="F27">
         <f xml:space="preserve"> VLOOKUP(A27,  Total_population!A26:C81, 3, FALSE)</f>
         <v>5407</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>89834.408599999995</v>
-      </c>
-      <c r="F27">
-        <v>10215859.084289599</v>
-      </c>
       <c r="G27">
-        <v>18552.407581584801</v>
-      </c>
-      <c r="H27">
         <f xml:space="preserve"> VLOOKUP(A27, 'Total_Employment_in_Arts-Relate'!A26:N76, 9, FALSE)</f>
         <v>105</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
+      <c r="H27">
+        <f xml:space="preserve"> G27 / F27</f>
         <v>1.9419271314962086E-2</v>
       </c>
-      <c r="J27">
-        <f xml:space="preserve"> VLOOKUP(A27, 'Total_Employment_in_Arts-Relate'!A26:N76, 14, FALSE)</f>
-        <v>-30</v>
-      </c>
-      <c r="K27">
-        <f>VLOOKUP(A27, 'perc of biz under 1 years'!A26:I81, 9, FALSE)</f>
-        <v>4.9462365589999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24043,40 +22515,30 @@
         <v>563786.76470000006</v>
       </c>
       <c r="D28">
+        <f xml:space="preserve"> C28 / 50</f>
+        <v>11275.735294000002</v>
+      </c>
+      <c r="E28">
+        <f>VLOOKUP(A28, 'perc of biz under 1 years'!A27:I82, 9, FALSE)</f>
+        <v>1.1029411760000001</v>
+      </c>
+      <c r="F28">
         <f xml:space="preserve"> VLOOKUP(A28,  Total_population!A27:C82, 3, FALSE)</f>
         <v>16839</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>11275.735294000002</v>
-      </c>
-      <c r="F28">
-        <v>65360039.170105003</v>
-      </c>
       <c r="G28">
-        <v>40019.185400202601</v>
-      </c>
-      <c r="H28">
         <f xml:space="preserve"> VLOOKUP(A28, 'Total_Employment_in_Arts-Relate'!A27:N77, 9, FALSE)</f>
         <v>27</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
+      <c r="H28">
+        <f xml:space="preserve"> G28 / F28</f>
         <v>1.6034206306787815E-3</v>
       </c>
-      <c r="J28">
-        <f xml:space="preserve"> VLOOKUP(A28, 'Total_Employment_in_Arts-Relate'!A27:N77, 14, FALSE)</f>
-        <v>-5</v>
-      </c>
-      <c r="K28">
-        <f>VLOOKUP(A28, 'perc of biz under 1 years'!A27:I82, 9, FALSE)</f>
-        <v>1.1029411760000001</v>
-      </c>
-      <c r="L28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24087,37 +22549,27 @@
         <v>3130144.9279999998</v>
       </c>
       <c r="D29">
+        <f xml:space="preserve"> C29 / 50</f>
+        <v>62602.898559999994</v>
+      </c>
+      <c r="E29">
+        <f>VLOOKUP(A29, 'perc of biz under 1 years'!A28:I83, 9, FALSE)</f>
+        <v>6.6666666670000003</v>
+      </c>
+      <c r="F29">
         <f xml:space="preserve"> VLOOKUP(A29,  Total_population!A28:C83, 3, FALSE)</f>
         <v>7250</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>62602.898559999994</v>
-      </c>
-      <c r="F29">
-        <v>11684191.118774399</v>
-      </c>
       <c r="G29">
-        <v>14976.123851369301</v>
-      </c>
-      <c r="H29">
         <f xml:space="preserve"> VLOOKUP(A29, 'Total_Employment_in_Arts-Relate'!A28:N78, 9, FALSE)</f>
         <v>39</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f xml:space="preserve"> G29 / F29</f>
         <v>5.3793103448275866E-3</v>
       </c>
-      <c r="J29">
-        <f xml:space="preserve"> VLOOKUP(A29, 'Total_Employment_in_Arts-Relate'!A28:N78, 14, FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="K29">
-        <f>VLOOKUP(A29, 'perc of biz under 1 years'!A28:I83, 9, FALSE)</f>
-        <v>6.6666666670000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24128,37 +22580,27 @@
         <v>1592537.3130000001</v>
       </c>
       <c r="D30">
+        <f xml:space="preserve"> C30 / 50</f>
+        <v>31850.74626</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(A30, 'perc of biz under 1 years'!A29:I84, 9, FALSE)</f>
+        <v>5.4726368159999996</v>
+      </c>
+      <c r="F30">
         <f xml:space="preserve"> VLOOKUP(A30,  Total_population!A29:C84, 3, FALSE)</f>
         <v>10873</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>31850.74626</v>
-      </c>
-      <c r="F30">
-        <v>63262430.073608398</v>
-      </c>
       <c r="G30">
-        <v>36034.498446969003</v>
-      </c>
-      <c r="H30">
         <f xml:space="preserve"> VLOOKUP(A30, 'Total_Employment_in_Arts-Relate'!A29:N79, 9, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
+      <c r="H30">
+        <f xml:space="preserve"> G30 / F30</f>
         <v>3.6788374873539964E-4</v>
       </c>
-      <c r="J30">
-        <f xml:space="preserve"> VLOOKUP(A30, 'Total_Employment_in_Arts-Relate'!A29:N79, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f>VLOOKUP(A30, 'perc of biz under 1 years'!A29:I84, 9, FALSE)</f>
-        <v>5.4726368159999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24169,37 +22611,27 @@
         <v>7544585.75</v>
       </c>
       <c r="D31">
+        <f xml:space="preserve"> C31 / 50</f>
+        <v>150891.715</v>
+      </c>
+      <c r="E31">
+        <f>VLOOKUP(A31, 'perc of biz under 1 years'!A30:I85, 9, FALSE)</f>
+        <v>5.0441361919999999</v>
+      </c>
+      <c r="F31">
         <f xml:space="preserve"> VLOOKUP(A31,  Total_population!A30:C85, 3, FALSE)</f>
         <v>12855</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>150891.715</v>
-      </c>
-      <c r="F31">
-        <v>24995836.2617798</v>
-      </c>
       <c r="G31">
-        <v>43415.059547857003</v>
-      </c>
-      <c r="H31">
         <f xml:space="preserve"> VLOOKUP(A31, 'Total_Employment_in_Arts-Relate'!A30:N80, 9, FALSE)</f>
         <v>1077</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
+      <c r="H31">
+        <f xml:space="preserve"> G31 / F31</f>
         <v>8.3780630105017503E-2</v>
       </c>
-      <c r="J31">
-        <f xml:space="preserve"> VLOOKUP(A31, 'Total_Employment_in_Arts-Relate'!A30:N80, 14, FALSE)</f>
-        <v>-7</v>
-      </c>
-      <c r="K31">
-        <f>VLOOKUP(A31, 'perc of biz under 1 years'!A30:I85, 9, FALSE)</f>
-        <v>5.0441361919999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -24210,37 +22642,27 @@
         <v>664179.10450000002</v>
       </c>
       <c r="D32">
+        <f xml:space="preserve"> C32 / 50</f>
+        <v>13283.58209</v>
+      </c>
+      <c r="E32">
+        <f>VLOOKUP(A32, 'perc of biz under 1 years'!A31:I86, 9, FALSE)</f>
+        <v>1.4925373129999999</v>
+      </c>
+      <c r="F32">
         <f xml:space="preserve"> VLOOKUP(A32,  Total_population!A31:C86, 3, FALSE)</f>
         <v>12273</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>13283.58209</v>
-      </c>
-      <c r="F32">
-        <v>49665744.2373657</v>
-      </c>
       <c r="G32">
-        <v>34419.676527967902</v>
-      </c>
-      <c r="H32">
         <f xml:space="preserve"> VLOOKUP(A32, 'Total_Employment_in_Arts-Relate'!A31:N81, 9, FALSE)</f>
         <v>34</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
+      <c r="H32">
+        <f xml:space="preserve"> G32 / F32</f>
         <v>2.7703088079524159E-3</v>
       </c>
-      <c r="J32">
-        <f xml:space="preserve"> VLOOKUP(A32, 'Total_Employment_in_Arts-Relate'!A31:N81, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f>VLOOKUP(A32, 'perc of biz under 1 years'!A31:I86, 9, FALSE)</f>
-        <v>1.4925373129999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -24251,37 +22673,27 @@
         <v>425141.24290000001</v>
       </c>
       <c r="D33">
+        <f xml:space="preserve"> C33 / 50</f>
+        <v>8502.8248579999999</v>
+      </c>
+      <c r="E33">
+        <f>VLOOKUP(A33, 'perc of biz under 1 years'!A32:I87, 9, FALSE)</f>
+        <v>9.6045197739999999</v>
+      </c>
+      <c r="F33">
         <f xml:space="preserve"> VLOOKUP(A33,  Total_population!A32:C87, 3, FALSE)</f>
         <v>15311</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>8502.8248579999999</v>
-      </c>
-      <c r="F33">
-        <v>44147812.325195298</v>
-      </c>
       <c r="G33">
-        <v>29314.3346717928</v>
-      </c>
-      <c r="H33">
         <f xml:space="preserve"> VLOOKUP(A33, 'Total_Employment_in_Arts-Relate'!A32:N82, 9, FALSE)</f>
         <v>3</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
+      <c r="H33">
+        <f xml:space="preserve"> G33 / F33</f>
         <v>1.959375612304879E-4</v>
       </c>
-      <c r="J33">
-        <f xml:space="preserve"> VLOOKUP(A33, 'Total_Employment_in_Arts-Relate'!A32:N82, 14, FALSE)</f>
-        <v>-1</v>
-      </c>
-      <c r="K33">
-        <f>VLOOKUP(A33, 'perc of biz under 1 years'!A32:I87, 9, FALSE)</f>
-        <v>9.6045197739999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -24292,37 +22704,27 @@
         <v>181707.31709999999</v>
       </c>
       <c r="D34">
+        <f xml:space="preserve"> C34 / 50</f>
+        <v>3634.1463419999995</v>
+      </c>
+      <c r="E34">
+        <f>VLOOKUP(A34, 'perc of biz under 1 years'!A33:I88, 9, FALSE)</f>
+        <v>3.6585365849999998</v>
+      </c>
+      <c r="F34">
         <f xml:space="preserve"> VLOOKUP(A34,  Total_population!A33:C88, 3, FALSE)</f>
         <v>7781</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>3634.1463419999995</v>
-      </c>
-      <c r="F34">
-        <v>8897845.1912841797</v>
-      </c>
       <c r="G34">
-        <v>13120.158719364599</v>
-      </c>
-      <c r="H34">
         <f xml:space="preserve"> VLOOKUP(A34, 'Total_Employment_in_Arts-Relate'!A33:N83, 9, FALSE)</f>
         <v>2</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
+      <c r="H34">
+        <f xml:space="preserve"> G34 / F34</f>
         <v>2.5703637064644646E-4</v>
       </c>
-      <c r="J34">
-        <f xml:space="preserve"> VLOOKUP(A34, 'Total_Employment_in_Arts-Relate'!A33:N83, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f>VLOOKUP(A34, 'perc of biz under 1 years'!A33:I88, 9, FALSE)</f>
-        <v>3.6585365849999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -24333,37 +22735,27 @@
         <v>2128973.8139999998</v>
       </c>
       <c r="D35">
+        <f xml:space="preserve"> C35 / 50</f>
+        <v>42579.476279999995</v>
+      </c>
+      <c r="E35">
+        <f>VLOOKUP(A35, 'perc of biz under 1 years'!A34:I89, 9, FALSE)</f>
+        <v>7.6291079809999998</v>
+      </c>
+      <c r="F35">
         <f xml:space="preserve"> VLOOKUP(A35,  Total_population!A34:C89, 3, FALSE)</f>
         <v>17388</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>42579.476279999995</v>
-      </c>
-      <c r="F35">
-        <v>62441489.241393998</v>
-      </c>
       <c r="G35">
-        <v>43152.6256992134</v>
-      </c>
-      <c r="H35">
         <f xml:space="preserve"> VLOOKUP(A35, 'Total_Employment_in_Arts-Relate'!A34:N84, 9, FALSE)</f>
         <v>189</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
+      <c r="H35">
+        <f xml:space="preserve"> G35 / F35</f>
         <v>1.0869565217391304E-2</v>
       </c>
-      <c r="J35">
-        <f xml:space="preserve"> VLOOKUP(A35, 'Total_Employment_in_Arts-Relate'!A34:N84, 14, FALSE)</f>
-        <v>-10</v>
-      </c>
-      <c r="K35">
-        <f>VLOOKUP(A35, 'perc of biz under 1 years'!A34:I89, 9, FALSE)</f>
-        <v>7.6291079809999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -24374,37 +22766,27 @@
         <v>1257961.9909999999</v>
       </c>
       <c r="D36">
+        <f xml:space="preserve"> C36 / 50</f>
+        <v>25159.239819999999</v>
+      </c>
+      <c r="E36">
+        <f>VLOOKUP(A36, 'perc of biz under 1 years'!A35:I90, 9, FALSE)</f>
+        <v>6.4454976300000002</v>
+      </c>
+      <c r="F36">
         <f xml:space="preserve"> VLOOKUP(A36,  Total_population!A35:C90, 3, FALSE)</f>
         <v>15020</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>25159.239819999999</v>
-      </c>
-      <c r="F36">
-        <v>23823949.929382298</v>
-      </c>
       <c r="G36">
-        <v>25020.096969802002</v>
-      </c>
-      <c r="H36">
         <f xml:space="preserve"> VLOOKUP(A36, 'Total_Employment_in_Arts-Relate'!A35:N85, 9, FALSE)</f>
         <v>800</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
+      <c r="H36">
+        <f xml:space="preserve"> G36 / F36</f>
         <v>5.3262316910785618E-2</v>
       </c>
-      <c r="J36">
-        <f xml:space="preserve"> VLOOKUP(A36, 'Total_Employment_in_Arts-Relate'!A35:N85, 14, FALSE)</f>
-        <v>-248</v>
-      </c>
-      <c r="K36">
-        <f>VLOOKUP(A36, 'perc of biz under 1 years'!A35:I90, 9, FALSE)</f>
-        <v>6.4454976300000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -24415,37 +22797,27 @@
         <v>1352432.432</v>
       </c>
       <c r="D37">
+        <f xml:space="preserve"> C37 / 50</f>
+        <v>27048.648639999999</v>
+      </c>
+      <c r="E37">
+        <f>VLOOKUP(A37, 'perc of biz under 1 years'!A36:I91, 9, FALSE)</f>
+        <v>4.324324324</v>
+      </c>
+      <c r="F37">
         <f xml:space="preserve"> VLOOKUP(A37,  Total_population!A36:C91, 3, FALSE)</f>
         <v>9624</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>27048.648639999999</v>
-      </c>
-      <c r="F37">
-        <v>17884471.286865201</v>
-      </c>
       <c r="G37">
-        <v>22767.827416215499</v>
-      </c>
-      <c r="H37">
         <f xml:space="preserve"> VLOOKUP(A37, 'Total_Employment_in_Arts-Relate'!A36:N86, 9, FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="1"/>
+      <c r="H37">
+        <f xml:space="preserve"> G37 / F37</f>
         <v>4.1562759767248546E-4</v>
       </c>
-      <c r="J37">
-        <f xml:space="preserve"> VLOOKUP(A37, 'Total_Employment_in_Arts-Relate'!A36:N86, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <f>VLOOKUP(A37, 'perc of biz under 1 years'!A36:I91, 9, FALSE)</f>
-        <v>4.324324324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24456,37 +22828,27 @@
         <v>2292467.5320000001</v>
       </c>
       <c r="D38">
+        <f xml:space="preserve"> C38 / 50</f>
+        <v>45849.350640000004</v>
+      </c>
+      <c r="E38">
+        <f>VLOOKUP(A38, 'perc of biz under 1 years'!A37:I92, 9, FALSE)</f>
+        <v>4.4155844159999997</v>
+      </c>
+      <c r="F38">
         <f xml:space="preserve"> VLOOKUP(A38,  Total_population!A37:C92, 3, FALSE)</f>
         <v>8964</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>45849.350640000004</v>
-      </c>
-      <c r="F38">
-        <v>67470845.989196807</v>
-      </c>
       <c r="G38">
-        <v>44412.745130362702</v>
-      </c>
-      <c r="H38">
         <f xml:space="preserve"> VLOOKUP(A38, 'Total_Employment_in_Arts-Relate'!A37:N87, 9, FALSE)</f>
         <v>9</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
+      <c r="H38">
+        <f xml:space="preserve"> G38 / F38</f>
         <v>1.004016064257028E-3</v>
       </c>
-      <c r="J38">
-        <f xml:space="preserve"> VLOOKUP(A38, 'Total_Employment_in_Arts-Relate'!A37:N87, 14, FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="K38">
-        <f>VLOOKUP(A38, 'perc of biz under 1 years'!A37:I92, 9, FALSE)</f>
-        <v>4.4155844159999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24497,37 +22859,27 @@
         <v>1575229.358</v>
       </c>
       <c r="D39">
+        <f xml:space="preserve"> C39 / 50</f>
+        <v>31504.587159999999</v>
+      </c>
+      <c r="E39">
+        <f>VLOOKUP(A39, 'perc of biz under 1 years'!A38:I93, 9, FALSE)</f>
+        <v>8.7155963300000003</v>
+      </c>
+      <c r="F39">
         <f xml:space="preserve"> VLOOKUP(A39,  Total_population!A38:C93, 3, FALSE)</f>
         <v>5168</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>31504.587159999999</v>
-      </c>
-      <c r="F39">
-        <v>56943058.651367202</v>
-      </c>
       <c r="G39">
-        <v>38539.766148481896</v>
-      </c>
-      <c r="H39">
         <f xml:space="preserve"> VLOOKUP(A39, 'Total_Employment_in_Arts-Relate'!A38:N88, 9, FALSE)</f>
         <v>28</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
+      <c r="H39">
+        <f xml:space="preserve"> G39 / F39</f>
         <v>5.4179566563467493E-3</v>
       </c>
-      <c r="J39">
-        <f xml:space="preserve"> VLOOKUP(A39, 'Total_Employment_in_Arts-Relate'!A38:N88, 14, FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="K39">
-        <f>VLOOKUP(A39, 'perc of biz under 1 years'!A38:I93, 9, FALSE)</f>
-        <v>8.7155963300000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24538,37 +22890,27 @@
         <v>727762.66850000003</v>
       </c>
       <c r="D40">
+        <f xml:space="preserve"> C40 / 50</f>
+        <v>14555.25337</v>
+      </c>
+      <c r="E40">
+        <f>VLOOKUP(A40, 'perc of biz under 1 years'!A39:I94, 9, FALSE)</f>
+        <v>5.3908355800000001</v>
+      </c>
+      <c r="F40">
         <f xml:space="preserve"> VLOOKUP(A40,  Total_population!A39:C94, 3, FALSE)</f>
         <v>17464</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>14555.25337</v>
-      </c>
-      <c r="F40">
-        <v>74923987.694213897</v>
-      </c>
       <c r="G40">
-        <v>42904.222144330997</v>
-      </c>
-      <c r="H40">
         <f xml:space="preserve"> VLOOKUP(A40, 'Total_Employment_in_Arts-Relate'!A39:N89, 9, FALSE)</f>
         <v>90</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
+      <c r="H40">
+        <f xml:space="preserve"> G40 / F40</f>
         <v>5.1534585432890514E-3</v>
       </c>
-      <c r="J40">
-        <f xml:space="preserve"> VLOOKUP(A40, 'Total_Employment_in_Arts-Relate'!A39:N89, 14, FALSE)</f>
-        <v>-17</v>
-      </c>
-      <c r="K40">
-        <f>VLOOKUP(A40, 'perc of biz under 1 years'!A39:I94, 9, FALSE)</f>
-        <v>5.3908355800000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24579,37 +22921,27 @@
         <v>190689.65520000001</v>
       </c>
       <c r="D41">
+        <f xml:space="preserve"> C41 / 50</f>
+        <v>3813.7931040000003</v>
+      </c>
+      <c r="E41">
+        <f>VLOOKUP(A41, 'perc of biz under 1 years'!A40:I95, 9, FALSE)</f>
+        <v>5.5172413789999997</v>
+      </c>
+      <c r="F41">
         <f xml:space="preserve"> VLOOKUP(A41,  Total_population!A40:C95, 3, FALSE)</f>
         <v>16643</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>3813.7931040000003</v>
-      </c>
-      <c r="F41">
-        <v>52743271.767883301</v>
-      </c>
       <c r="G41">
-        <v>38889.8945909104</v>
-      </c>
-      <c r="H41">
         <f xml:space="preserve"> VLOOKUP(A41, 'Total_Employment_in_Arts-Relate'!A40:N90, 9, FALSE)</f>
         <v>48</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
+      <c r="H41">
+        <f xml:space="preserve"> G41 / F41</f>
         <v>2.8840954154899959E-3</v>
       </c>
-      <c r="J41">
-        <f xml:space="preserve"> VLOOKUP(A41, 'Total_Employment_in_Arts-Relate'!A40:N90, 14, FALSE)</f>
-        <v>41</v>
-      </c>
-      <c r="K41">
-        <f>VLOOKUP(A41, 'perc of biz under 1 years'!A40:I95, 9, FALSE)</f>
-        <v>5.5172413789999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24620,37 +22952,27 @@
         <v>1418802.774</v>
       </c>
       <c r="D42">
+        <f xml:space="preserve"> C42 / 50</f>
+        <v>28376.055479999999</v>
+      </c>
+      <c r="E42">
+        <f>VLOOKUP(A42, 'perc of biz under 1 years'!A41:I96, 9, FALSE)</f>
+        <v>21.689785619999999</v>
+      </c>
+      <c r="F42">
         <f xml:space="preserve"> VLOOKUP(A42,  Total_population!A41:C96, 3, FALSE)</f>
         <v>10021</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>28376.055479999999</v>
-      </c>
-      <c r="F42">
-        <v>24585968.234069798</v>
-      </c>
       <c r="G42">
-        <v>23866.328178908199</v>
-      </c>
-      <c r="H42">
         <f xml:space="preserve"> VLOOKUP(A42, 'Total_Employment_in_Arts-Relate'!A41:N91, 9, FALSE)</f>
         <v>94</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
+      <c r="H42">
+        <f xml:space="preserve"> G42 / F42</f>
         <v>9.3803013671290292E-3</v>
       </c>
-      <c r="J42">
-        <f xml:space="preserve"> VLOOKUP(A42, 'Total_Employment_in_Arts-Relate'!A41:N91, 14, FALSE)</f>
-        <v>145</v>
-      </c>
-      <c r="K42">
-        <f>VLOOKUP(A42, 'perc of biz under 1 years'!A41:I96, 9, FALSE)</f>
-        <v>21.689785619999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24661,37 +22983,27 @@
         <v>1735051.5460000001</v>
       </c>
       <c r="D43">
+        <f xml:space="preserve"> C43 / 50</f>
+        <v>34701.030920000005</v>
+      </c>
+      <c r="E43">
+        <f>VLOOKUP(A43, 'perc of biz under 1 years'!A42:I97, 9, FALSE)</f>
+        <v>6.5292096219999998</v>
+      </c>
+      <c r="F43">
         <f xml:space="preserve"> VLOOKUP(A43,  Total_population!A42:C97, 3, FALSE)</f>
         <v>9131</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>34701.030920000005</v>
-      </c>
-      <c r="F43">
-        <v>89894372.210998505</v>
-      </c>
       <c r="G43">
-        <v>47825.862926598304</v>
-      </c>
-      <c r="H43">
         <f xml:space="preserve"> VLOOKUP(A43, 'Total_Employment_in_Arts-Relate'!A42:N92, 9, FALSE)</f>
         <v>66</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
+      <c r="H43">
+        <f xml:space="preserve"> G43 / F43</f>
         <v>7.228123973277845E-3</v>
       </c>
-      <c r="J43">
-        <f xml:space="preserve"> VLOOKUP(A43, 'Total_Employment_in_Arts-Relate'!A42:N92, 14, FALSE)</f>
-        <v>-6</v>
-      </c>
-      <c r="K43">
-        <f>VLOOKUP(A43, 'perc of biz under 1 years'!A42:I97, 9, FALSE)</f>
-        <v>6.5292096219999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24702,37 +23014,27 @@
         <v>659467.45559999999</v>
       </c>
       <c r="D44">
+        <f xml:space="preserve"> C44 / 50</f>
+        <v>13189.349112</v>
+      </c>
+      <c r="E44">
+        <f>VLOOKUP(A44, 'perc of biz under 1 years'!A43:I98, 9, FALSE)</f>
+        <v>4.7337278109999996</v>
+      </c>
+      <c r="F44">
         <f xml:space="preserve"> VLOOKUP(A44,  Total_population!A43:C98, 3, FALSE)</f>
         <v>14549</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>13189.349112</v>
-      </c>
-      <c r="F44">
-        <v>14507643.2044678</v>
-      </c>
       <c r="G44">
-        <v>21786.3746600921</v>
-      </c>
-      <c r="H44">
         <f xml:space="preserve"> VLOOKUP(A44, 'Total_Employment_in_Arts-Relate'!A43:N93, 9, FALSE)</f>
         <v>9</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
+      <c r="H44">
+        <f xml:space="preserve"> G44 / F44</f>
         <v>6.1859921644099247E-4</v>
       </c>
-      <c r="J44">
-        <f xml:space="preserve"> VLOOKUP(A44, 'Total_Employment_in_Arts-Relate'!A43:N93, 14, FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="K44">
-        <f>VLOOKUP(A44, 'perc of biz under 1 years'!A43:I98, 9, FALSE)</f>
-        <v>4.7337278109999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24743,37 +23045,27 @@
         <v>339179.10450000002</v>
       </c>
       <c r="D45">
+        <f xml:space="preserve"> C45 / 50</f>
+        <v>6783.5820899999999</v>
+      </c>
+      <c r="E45">
+        <f>VLOOKUP(A45, 'perc of biz under 1 years'!A44:I99, 9, FALSE)</f>
+        <v>2.9850746269999999</v>
+      </c>
+      <c r="F45">
         <f xml:space="preserve"> VLOOKUP(A45,  Total_population!A44:C99, 3, FALSE)</f>
         <v>9668</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>6783.5820899999999</v>
-      </c>
-      <c r="F45">
-        <v>41059796.677246101</v>
-      </c>
       <c r="G45">
-        <v>29078.838498561701</v>
-      </c>
-      <c r="H45">
         <f xml:space="preserve"> VLOOKUP(A45, 'Total_Employment_in_Arts-Relate'!A44:N94, 9, FALSE)</f>
         <v>23</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
+      <c r="H45">
+        <f xml:space="preserve"> G45 / F45</f>
         <v>2.3789822093504345E-3</v>
       </c>
-      <c r="J45">
-        <f xml:space="preserve"> VLOOKUP(A45, 'Total_Employment_in_Arts-Relate'!A44:N94, 14, FALSE)</f>
-        <v>-11</v>
-      </c>
-      <c r="K45">
-        <f>VLOOKUP(A45, 'perc of biz under 1 years'!A44:I99, 9, FALSE)</f>
-        <v>2.9850746269999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24784,40 +23076,27 @@
         <v>263879.59869999997</v>
       </c>
       <c r="D46">
+        <f xml:space="preserve"> C46 / 50</f>
+        <v>5277.591973999999</v>
+      </c>
+      <c r="E46">
+        <f>VLOOKUP(A46, 'perc of biz under 1 years'!A45:I100, 9, FALSE)</f>
+        <v>12.374581940000001</v>
+      </c>
+      <c r="F46">
         <f xml:space="preserve"> VLOOKUP(A46,  Total_population!A45:C100, 3, FALSE)</f>
         <v>11816</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>5277.591973999999</v>
-      </c>
-      <c r="F46">
-        <v>30400962.004516602</v>
-      </c>
       <c r="G46">
-        <v>24725.934069360999</v>
-      </c>
-      <c r="H46">
         <f xml:space="preserve"> VLOOKUP(A46, 'Total_Employment_in_Arts-Relate'!A45:N95, 9, FALSE)</f>
         <v>24</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="1"/>
+      <c r="H46">
+        <f xml:space="preserve"> G46 / F46</f>
         <v>2.031144211238998E-3</v>
       </c>
-      <c r="J46">
-        <f xml:space="preserve"> VLOOKUP(A46, 'Total_Employment_in_Arts-Relate'!A45:N95, 14, FALSE)</f>
-        <v>-14</v>
-      </c>
-      <c r="K46">
-        <f>VLOOKUP(A46, 'perc of biz under 1 years'!A45:I100, 9, FALSE)</f>
-        <v>12.374581940000001</v>
-      </c>
-      <c r="M46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -24828,37 +23107,27 @@
         <v>5896431.0920000002</v>
       </c>
       <c r="D47">
+        <f xml:space="preserve"> C47 / 50</f>
+        <v>117928.62184000001</v>
+      </c>
+      <c r="E47">
+        <f>VLOOKUP(A47, 'perc of biz under 1 years'!A46:I101, 9, FALSE)</f>
+        <v>5.8823529409999997</v>
+      </c>
+      <c r="F47">
         <f xml:space="preserve"> VLOOKUP(A47,  Total_population!A46:C101, 3, FALSE)</f>
         <v>5086</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>117928.62184000001</v>
-      </c>
-      <c r="F47">
-        <v>9302012.9984741192</v>
-      </c>
       <c r="G47">
-        <v>12334.027534749301</v>
-      </c>
-      <c r="H47">
         <f xml:space="preserve"> VLOOKUP(A47, 'Total_Employment_in_Arts-Relate'!A46:N96, 9, FALSE)</f>
         <v>14</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
+      <c r="H47">
+        <f xml:space="preserve"> G47 / F47</f>
         <v>2.7526543452615023E-3</v>
       </c>
-      <c r="J47">
-        <f xml:space="preserve"> VLOOKUP(A47, 'Total_Employment_in_Arts-Relate'!A46:N96, 14, FALSE)</f>
-        <v>-2</v>
-      </c>
-      <c r="K47">
-        <f>VLOOKUP(A47, 'perc of biz under 1 years'!A46:I101, 9, FALSE)</f>
-        <v>5.8823529409999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -24869,40 +23138,27 @@
         <v>315536.72320000001</v>
       </c>
       <c r="D48">
+        <f xml:space="preserve"> C48 / 50</f>
+        <v>6310.7344640000001</v>
+      </c>
+      <c r="E48">
+        <f>VLOOKUP(A48, 'perc of biz under 1 years'!A47:I102, 9, FALSE)</f>
+        <v>3.3898305080000002</v>
+      </c>
+      <c r="F48">
         <f xml:space="preserve"> VLOOKUP(A48,  Total_population!A47:C102, 3, FALSE)</f>
         <v>14896</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>6310.7344640000001</v>
-      </c>
-      <c r="F48">
-        <v>23672092.868103001</v>
-      </c>
       <c r="G48">
-        <v>20987.1433066551</v>
-      </c>
-      <c r="H48">
         <f xml:space="preserve"> VLOOKUP(A48, 'Total_Employment_in_Arts-Relate'!A47:N97, 9, FALSE)</f>
         <v>27</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
+      <c r="H48">
+        <f xml:space="preserve"> G48 / F48</f>
         <v>1.8125671321160043E-3</v>
       </c>
-      <c r="J48">
-        <f xml:space="preserve"> VLOOKUP(A48, 'Total_Employment_in_Arts-Relate'!A47:N97, 14, FALSE)</f>
-        <v>-26</v>
-      </c>
-      <c r="K48">
-        <f>VLOOKUP(A48, 'perc of biz under 1 years'!A47:I102, 9, FALSE)</f>
-        <v>3.3898305080000002</v>
-      </c>
-      <c r="M48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -24913,37 +23169,27 @@
         <v>1198178.0900000001</v>
       </c>
       <c r="D49">
+        <f xml:space="preserve"> C49 / 50</f>
+        <v>23963.561800000003</v>
+      </c>
+      <c r="E49">
+        <f>VLOOKUP(A49, 'perc of biz under 1 years'!A48:I103, 9, FALSE)</f>
+        <v>5.243445693</v>
+      </c>
+      <c r="F49">
         <f xml:space="preserve"> VLOOKUP(A49,  Total_population!A48:C103, 3, FALSE)</f>
         <v>6406</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>23963.561800000003</v>
-      </c>
-      <c r="F49">
-        <v>46353935.426086403</v>
-      </c>
       <c r="G49">
-        <v>68440.025826685902</v>
-      </c>
-      <c r="H49">
         <f xml:space="preserve"> VLOOKUP(A49, 'Total_Employment_in_Arts-Relate'!A48:N98, 9, FALSE)</f>
         <v>7</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
+      <c r="H49">
+        <f xml:space="preserve"> G49 / F49</f>
         <v>1.0927255697783327E-3</v>
       </c>
-      <c r="J49">
-        <f xml:space="preserve"> VLOOKUP(A49, 'Total_Employment_in_Arts-Relate'!A48:N98, 14, FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="K49">
-        <f>VLOOKUP(A49, 'perc of biz under 1 years'!A48:I103, 9, FALSE)</f>
-        <v>5.243445693</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -24954,37 +23200,27 @@
         <v>2914801.0869999998</v>
       </c>
       <c r="D50">
+        <f xml:space="preserve"> C50 / 50</f>
+        <v>58296.021739999996</v>
+      </c>
+      <c r="E50">
+        <f>VLOOKUP(A50, 'perc of biz under 1 years'!A49:I104, 9, FALSE)</f>
+        <v>5.5555555559999998</v>
+      </c>
+      <c r="F50">
         <f xml:space="preserve"> VLOOKUP(A50,  Total_population!A49:C104, 3, FALSE)</f>
         <v>6260</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>58296.021739999996</v>
-      </c>
-      <c r="F50">
-        <v>111251478.47296099</v>
-      </c>
       <c r="G50">
-        <v>102291.48054765799</v>
-      </c>
-      <c r="H50">
         <f xml:space="preserve"> VLOOKUP(A50, 'Total_Employment_in_Arts-Relate'!A49:N99, 9, FALSE)</f>
         <v>42</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
+      <c r="H50">
+        <f xml:space="preserve"> G50 / F50</f>
         <v>6.7092651757188499E-3</v>
       </c>
-      <c r="J50">
-        <f xml:space="preserve"> VLOOKUP(A50, 'Total_Employment_in_Arts-Relate'!A49:N99, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f>VLOOKUP(A50, 'perc of biz under 1 years'!A49:I104, 9, FALSE)</f>
-        <v>5.5555555559999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -24995,37 +23231,27 @@
         <v>319325.15340000001</v>
       </c>
       <c r="D51">
+        <f xml:space="preserve"> C51 / 50</f>
+        <v>6386.503068</v>
+      </c>
+      <c r="E51">
+        <f>VLOOKUP(A51, 'perc of biz under 1 years'!A50:I105, 9, FALSE)</f>
+        <v>0.61349693299999997</v>
+      </c>
+      <c r="F51">
         <f xml:space="preserve"> VLOOKUP(A51,  Total_population!A50:C105, 3, FALSE)</f>
         <v>13284</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>6386.503068</v>
-      </c>
-      <c r="F51">
-        <v>27876227.5906372</v>
-      </c>
       <c r="G51">
-        <v>24052.221372193399</v>
-      </c>
-      <c r="H51">
         <f xml:space="preserve"> VLOOKUP(A51, 'Total_Employment_in_Arts-Relate'!A50:N100, 9, FALSE)</f>
         <v>10</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="1"/>
+      <c r="H51">
+        <f xml:space="preserve"> G51 / F51</f>
         <v>7.5278530563083407E-4</v>
       </c>
-      <c r="J51">
-        <f xml:space="preserve"> VLOOKUP(A51, 'Total_Employment_in_Arts-Relate'!A50:N100, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <f>VLOOKUP(A51, 'perc of biz under 1 years'!A50:I105, 9, FALSE)</f>
-        <v>0.61349693299999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -25036,37 +23262,27 @@
         <v>880416.66669999994</v>
       </c>
       <c r="D52">
+        <f xml:space="preserve"> C52 / 50</f>
+        <v>17608.333333999999</v>
+      </c>
+      <c r="E52">
+        <f>VLOOKUP(A52, 'perc of biz under 1 years'!A51:I106, 9, FALSE)</f>
+        <v>2.2222222220000001</v>
+      </c>
+      <c r="F52">
         <f xml:space="preserve"> VLOOKUP(A52,  Total_population!A51:C106, 3, FALSE)</f>
         <v>17885</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>17608.333333999999</v>
-      </c>
-      <c r="F52">
-        <v>37766068.837585397</v>
-      </c>
       <c r="G52">
-        <v>28355.563581396698</v>
-      </c>
-      <c r="H52">
         <f xml:space="preserve"> VLOOKUP(A52, 'Total_Employment_in_Arts-Relate'!A51:N101, 9, FALSE)</f>
         <v>18</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="1"/>
+      <c r="H52">
+        <f xml:space="preserve"> G52 / F52</f>
         <v>1.0064299692479732E-3</v>
       </c>
-      <c r="J52">
-        <f xml:space="preserve"> VLOOKUP(A52, 'Total_Employment_in_Arts-Relate'!A51:N101, 14, FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="K52">
-        <f>VLOOKUP(A52, 'perc of biz under 1 years'!A51:I106, 9, FALSE)</f>
-        <v>2.2222222220000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -25077,37 +23293,27 @@
         <v>1425546.108</v>
       </c>
       <c r="D53">
+        <f xml:space="preserve"> C53 / 50</f>
+        <v>28510.922160000002</v>
+      </c>
+      <c r="E53">
+        <f>VLOOKUP(A53, 'perc of biz under 1 years'!A52:I107, 9, FALSE)</f>
+        <v>2.395209581</v>
+      </c>
+      <c r="F53">
         <f xml:space="preserve"> VLOOKUP(A53,  Total_population!A52:C107, 3, FALSE)</f>
         <v>7753</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>28510.922160000002</v>
-      </c>
-      <c r="F53">
-        <v>20383750.544250499</v>
-      </c>
       <c r="G53">
-        <v>18733.826879742999</v>
-      </c>
-      <c r="H53">
         <f xml:space="preserve"> VLOOKUP(A53, 'Total_Employment_in_Arts-Relate'!A52:N102, 9, FALSE)</f>
         <v>6</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
+      <c r="H53">
+        <f xml:space="preserve"> G53 / F53</f>
         <v>7.7389397652521605E-4</v>
       </c>
-      <c r="J53">
-        <f xml:space="preserve"> VLOOKUP(A53, 'Total_Employment_in_Arts-Relate'!A52:N102, 14, FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="K53">
-        <f>VLOOKUP(A53, 'perc of biz under 1 years'!A52:I107, 9, FALSE)</f>
-        <v>2.395209581</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -25118,37 +23324,27 @@
         <v>123026.3158</v>
       </c>
       <c r="D54">
+        <f xml:space="preserve"> C54 / 50</f>
+        <v>2460.526316</v>
+      </c>
+      <c r="E54">
+        <f>VLOOKUP(A54, 'perc of biz under 1 years'!A53:I108, 9, FALSE)</f>
+        <v>3.0701754389999998</v>
+      </c>
+      <c r="F54">
         <f xml:space="preserve"> VLOOKUP(A54,  Total_population!A53:C108, 3, FALSE)</f>
         <v>10342</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>2460.526316</v>
-      </c>
-      <c r="F54">
-        <v>16976622.3384399</v>
-      </c>
       <c r="G54">
-        <v>19389.307821217</v>
-      </c>
-      <c r="H54">
         <f xml:space="preserve"> VLOOKUP(A54, 'Total_Employment_in_Arts-Relate'!A53:N103, 9, FALSE)</f>
         <v>27</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="1"/>
+      <c r="H54">
+        <f xml:space="preserve"> G54 / F54</f>
         <v>2.6107135950493134E-3</v>
       </c>
-      <c r="J54">
-        <f xml:space="preserve"> VLOOKUP(A54, 'Total_Employment_in_Arts-Relate'!A53:N103, 14, FALSE)</f>
-        <v>-5</v>
-      </c>
-      <c r="K54">
-        <f>VLOOKUP(A54, 'perc of biz under 1 years'!A53:I108, 9, FALSE)</f>
-        <v>3.0701754389999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -25159,37 +23355,27 @@
         <v>2393633.54</v>
       </c>
       <c r="D55">
+        <f xml:space="preserve"> C55 / 50</f>
+        <v>47872.6708</v>
+      </c>
+      <c r="E55">
+        <f>VLOOKUP(A55, 'perc of biz under 1 years'!A54:I109, 9, FALSE)</f>
+        <v>4.3478260869999996</v>
+      </c>
+      <c r="F55">
         <f xml:space="preserve"> VLOOKUP(A55,  Total_population!A54:C109, 3, FALSE)</f>
         <v>5503</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>47872.6708</v>
-      </c>
-      <c r="F55">
-        <v>39343262.038574196</v>
-      </c>
       <c r="G55">
-        <v>36962.260094746402</v>
-      </c>
-      <c r="H55">
         <f xml:space="preserve"> VLOOKUP(A55, 'Total_Employment_in_Arts-Relate'!A54:N104, 9, FALSE)</f>
         <v>67</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="1"/>
+      <c r="H55">
+        <f xml:space="preserve"> G55 / F55</f>
         <v>1.2175177176085772E-2</v>
       </c>
-      <c r="J55">
-        <f xml:space="preserve"> VLOOKUP(A55, 'Total_Employment_in_Arts-Relate'!A54:N104, 14, FALSE)</f>
-        <v>-3</v>
-      </c>
-      <c r="K55">
-        <f>VLOOKUP(A55, 'perc of biz under 1 years'!A54:I109, 9, FALSE)</f>
-        <v>4.3478260869999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -25200,34 +23386,24 @@
         <v>1817980.2960000001</v>
       </c>
       <c r="D56">
+        <f xml:space="preserve"> C56 / 50</f>
+        <v>36359.605920000002</v>
+      </c>
+      <c r="E56">
+        <f>VLOOKUP(A56, 'perc of biz under 1 years'!A55:I110, 9, FALSE)</f>
+        <v>3.448275862</v>
+      </c>
+      <c r="F56">
         <f xml:space="preserve"> VLOOKUP(A56,  Total_population!A55:C110, 3, FALSE)</f>
         <v>7119</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>36359.605920000002</v>
-      </c>
-      <c r="F56">
-        <v>45494092.949951202</v>
-      </c>
       <c r="G56">
-        <v>42573.124416184903</v>
-      </c>
-      <c r="H56">
         <f xml:space="preserve"> VLOOKUP(A56, 'Total_Employment_in_Arts-Relate'!A55:N105, 9, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="1"/>
+      <c r="H56">
+        <f xml:space="preserve"> G56 / F56</f>
         <v>0</v>
-      </c>
-      <c r="J56">
-        <f xml:space="preserve"> VLOOKUP(A56, 'Total_Employment_in_Arts-Relate'!A55:N105, 14, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <f>VLOOKUP(A56, 'perc of biz under 1 years'!A55:I110, 9, FALSE)</f>
-        <v>3.448275862</v>
       </c>
     </row>
   </sheetData>
